--- a/Input Files/Input.xlsx
+++ b/Input Files/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abeer\PycharmProjects\CaesarStoneTest-master\Input Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abeer.hasan\Desktop\CaesarStone-Prod\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1837A45E-71B9-4C6D-9896-B2A80D0F4CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB17E09-4627-493C-BECE-A11095FE2EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37185" yWindow="780" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,26 +32,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>cspartial login_page</t>
   </si>
   <si>
-    <t>https://caesarstone--cspartial.lightning.force.com/lightning/page/home</t>
-  </si>
-  <si>
     <t>login_username</t>
   </si>
   <si>
-    <t>caesarstone.testing@gmail.com.api</t>
-  </si>
-  <si>
     <t>login_password</t>
   </si>
   <si>
-    <t>2w3e4r5t6y</t>
-  </si>
-  <si>
     <t>csConnectTest_Owner_aus1 page</t>
   </si>
   <si>
@@ -64,43 +55,64 @@
     <t>https://caesarstone--cspartial.lightning.force.com/lightning/r/Contact/0035t000001byeFAAQ/view</t>
   </si>
   <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Retailer Name</t>
+  </si>
+  <si>
+    <t>Retailer Id</t>
+  </si>
+  <si>
+    <t>Eldan's Test Retailer - AU</t>
+  </si>
+  <si>
+    <t>0015t000002ZDK9AAO</t>
+  </si>
+  <si>
+    <t>Retailer_Designer Name</t>
+  </si>
+  <si>
+    <t>0035t000006quv9AAA</t>
+  </si>
+  <si>
+    <t>Retailer_Designer Id</t>
+  </si>
+  <si>
+    <t>Retailer_Designer Page</t>
+  </si>
+  <si>
+    <t>Fabricator_Account Page</t>
+  </si>
+  <si>
+    <t>Einav AUS Fabricator Account</t>
+  </si>
+  <si>
+    <t>https://caesarstone--cspartial.lightning.force.com/lightning/r/Contact/0035t000006FYKtAAO/view</t>
+  </si>
+  <si>
     <t>Retailer_Account</t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Retailer Name</t>
-  </si>
-  <si>
-    <t>Retailer Id</t>
-  </si>
-  <si>
-    <t>Eldan's Test Retailer - AU</t>
-  </si>
-  <si>
-    <t>0015t000002ZDK9AAO</t>
-  </si>
-  <si>
-    <t>Retailer_Designer Name</t>
-  </si>
-  <si>
-    <t>0035t000006quv9AAA</t>
-  </si>
-  <si>
-    <t>Retailer_Designer Id</t>
-  </si>
-  <si>
-    <t>Retailer_Designer Page</t>
-  </si>
-  <si>
-    <t>Fabricator_Account Page</t>
-  </si>
-  <si>
-    <t>Einav AUS Fabricator Account</t>
-  </si>
-  <si>
-    <t>https://caesarstone--cspartial.lightning.force.com/lightning/r/Contact/0035t000006FYKtAAO/view</t>
+    <t>sftestuser@caesarstone.com</t>
+  </si>
+  <si>
+    <t>1q2w3e4r5t6y</t>
+  </si>
+  <si>
+    <t>https://caesarstone.my.salesforce.com/</t>
+  </si>
+  <si>
+    <t>RET Automation Test User 1</t>
+  </si>
+  <si>
+    <t>https://caesarstone.lightning.force.com/lightning/r/Contact/0033V00000QR1D0QAL/view</t>
+  </si>
+  <si>
+    <t>FAB Automation Test User 2</t>
+  </si>
+  <si>
+    <t>https://caesarstone.lightning.force.com/lightning/r/Contact/0037T000009tm7nQAA/view</t>
   </si>
 </sst>
 </file>
@@ -446,155 +458,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
     <col min="2" max="2" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.95" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="13.95" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="13.95" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" ht="13.95" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.95" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="13.95" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="13.95" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.95" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="13.95" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -603,10 +615,9 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{0D73E1A8-B71B-4065-AF6B-64BED0789AB9}"/>
     <hyperlink ref="B21" r:id="rId3" xr:uid="{01F431FD-4E97-490A-98BC-E06141698448}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{04298E04-A694-477A-AE99-F203C2F6C0C7}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{1A7F44C7-3EE6-4935-86A4-1BE2FCD94356}"/>
-    <hyperlink ref="B24" r:id="rId6" xr:uid="{8A43FAD3-2620-4F1A-9E86-E6945224FDD0}"/>
+    <hyperlink ref="B24" r:id="rId5" xr:uid="{8A43FAD3-2620-4F1A-9E86-E6945224FDD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Input Files/Input.xlsx
+++ b/Input Files/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abeer.hasan\Desktop\CaesarStone-Prod\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB17E09-4627-493C-BECE-A11095FE2EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A5ED7-B63E-4428-9D07-0D04E99D048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37185" yWindow="780" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>cspartial login_page</t>
   </si>
@@ -113,13 +113,22 @@
   </si>
   <si>
     <t>https://caesarstone.lightning.force.com/lightning/r/Contact/0037T000009tm7nQAA/view</t>
+  </si>
+  <si>
+    <t>Fabricator_Contact</t>
+  </si>
+  <si>
+    <t>Fabricator_Contact Page</t>
+  </si>
+  <si>
+    <t>AUTO AUS TEST FABRICATOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +149,12 @@
       <color rgb="FF080707"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -169,12 +184,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,7 +475,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,12 +529,16 @@
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -526,7 +546,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>26</v>

--- a/Input Files/Input.xlsx
+++ b/Input Files/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abeer.hasan\Desktop\CaesarStone-Prod\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A5ED7-B63E-4428-9D07-0D04E99D048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A842CB11-127D-45CC-ACDC-853CFE721365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
     <t>Fabricator_Contact Page</t>
   </si>
   <si>
-    <t>AUTO AUS TEST FABRICATOR</t>
+    <t>AUTO AUS TEST FABRICATOR Dont Use Change or Delete</t>
   </si>
 </sst>
 </file>

--- a/Input Files/Input.xlsx
+++ b/Input Files/Input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abeer.hasan\Desktop\CaesarStone-Prod\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A842CB11-127D-45CC-ACDC-853CFE721365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BC6814-70EE-4AB2-8985-94F37918FE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>cspartial login_page</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Fabricator_Account</t>
   </si>
   <si>
-    <t>Eldan's Retailer Owner AU Test</t>
-  </si>
-  <si>
-    <t>https://caesarstone--cspartial.lightning.force.com/lightning/r/Contact/0035t000001byeFAAQ/view</t>
-  </si>
-  <si>
     <t>API</t>
   </si>
   <si>
@@ -64,18 +58,9 @@
     <t>Retailer Id</t>
   </si>
   <si>
-    <t>Eldan's Test Retailer - AU</t>
-  </si>
-  <si>
-    <t>0015t000002ZDK9AAO</t>
-  </si>
-  <si>
     <t>Retailer_Designer Name</t>
   </si>
   <si>
-    <t>0035t000006quv9AAA</t>
-  </si>
-  <si>
     <t>Retailer_Designer Id</t>
   </si>
   <si>
@@ -85,12 +70,6 @@
     <t>Fabricator_Account Page</t>
   </si>
   <si>
-    <t>Einav AUS Fabricator Account</t>
-  </si>
-  <si>
-    <t>https://caesarstone--cspartial.lightning.force.com/lightning/r/Contact/0035t000006FYKtAAO/view</t>
-  </si>
-  <si>
     <t>Retailer_Account</t>
   </si>
   <si>
@@ -122,6 +101,12 @@
   </si>
   <si>
     <t>AUTO AUS TEST FABRICATOR Dont Use Change or Delete</t>
+  </si>
+  <si>
+    <t>0033V00000QR1D0QAL</t>
+  </si>
+  <si>
+    <t>0013V00000Ibo7TQAR</t>
   </si>
 </sst>
 </file>
@@ -474,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -497,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -505,15 +490,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -521,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -533,23 +518,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -561,52 +546,52 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -618,26 +603,25 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{FF309C35-1DF7-46A8-BE10-816F4841881E}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{0D73E1A8-B71B-4065-AF6B-64BED0789AB9}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{01F431FD-4E97-490A-98BC-E06141698448}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{04298E04-A694-477A-AE99-F203C2F6C0C7}"/>
-    <hyperlink ref="B24" r:id="rId5" xr:uid="{8A43FAD3-2620-4F1A-9E86-E6945224FDD0}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{04298E04-A694-477A-AE99-F203C2F6C0C7}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{B6AA4D01-42AA-4894-BA6F-1013C0C6BD09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>